--- a/data/Unconditioned_Treatment_Egg_B1.2.xlsx
+++ b/data/Unconditioned_Treatment_Egg_B1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD7B2BA-69C8-6B40-9B79-8D2B06D72DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F0087E-0468-AF43-9B63-3B5ED6D5FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{2676DA51-217D-2643-9519-5FF3BE9D56EF}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>plate</t>
   </si>
   <si>
-    <t>1:4 Conditioned</t>
+    <t>1:4 Unconditioned</t>
   </si>
   <si>
-    <t>4:1 Conditioned</t>
+    <t>4:1 Unconditioned</t>
   </si>
 </sst>
 </file>
@@ -400,13 +400,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
